--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2655.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2655.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8724514385829194</v>
+        <v>1.91087007522583</v>
       </c>
       <c r="B1">
-        <v>1.47732220292108</v>
+        <v>2.118667125701904</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.082835912704468</v>
       </c>
       <c r="D1">
-        <v>1.293506095131981</v>
+        <v>2.492074489593506</v>
       </c>
       <c r="E1">
-        <v>0.8411589429750626</v>
+        <v>2.220349073410034</v>
       </c>
     </row>
   </sheetData>
